--- a/www/terminologies/ValueSet-jdv-age-cisis.xlsx
+++ b/www/terminologies/ValueSet-jdv-age-cisis.xlsx
@@ -37,7 +37,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>20250624152100</t>
+    <t>20251216141840</t>
   </si>
   <si>
     <t>Name</t>
@@ -67,7 +67,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-24T15:21:00+01:00</t>
+    <t>2025-12-16T14:18:40+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -130,7 +130,7 @@
     <t>373068000</t>
   </si>
   <si>
-    <t>indéterminé(e)</t>
+    <t>non déterminé(e)</t>
   </si>
   <si>
     <t>303112003</t>
